--- a/Data/diabetes.xlsx
+++ b/Data/diabetes.xlsx
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>22</v>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>34</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>38</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>54</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>66</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>82</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>86</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>90</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>18</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>22</v>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>34</v>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>38</v>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>42</v>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>54</v>
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>58</v>
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>66</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>70</v>
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>74</v>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>82</v>
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <v>86</v>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>90</v>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>14</v>
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>18</v>
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>22</v>
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>26</v>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>30</v>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>34</v>
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>38</v>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61">
         <v>46</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>50</v>
@@ -1871,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>54</v>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>58</v>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E66">
         <v>66</v>
@@ -1967,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>70</v>
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>74</v>
@@ -2015,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>78</v>
@@ -2039,7 +2039,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <v>82</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>86</v>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E72">
         <v>90</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E77">
         <v>14</v>
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>18</v>
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E79">
         <v>22</v>
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>26</v>
@@ -2303,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E81">
         <v>30</v>
@@ -2327,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>34</v>
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>38</v>
@@ -2375,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>42</v>
@@ -2423,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E87">
         <v>54</v>
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>58</v>
@@ -2495,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>62</v>
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E90">
         <v>66</v>
@@ -2543,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <v>70</v>
@@ -2567,7 +2567,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>74</v>
@@ -2591,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>78</v>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>82</v>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E95">
         <v>86</v>
@@ -2663,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>90</v>
@@ -2711,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -2759,7 +2759,7 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>10</v>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E101">
         <v>14</v>
@@ -2807,7 +2807,7 @@
         <v>5</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E102">
         <v>18</v>
@@ -2831,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -2855,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E104">
         <v>26</v>
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>30</v>
@@ -2903,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E106">
         <v>34</v>
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E107">
         <v>38</v>
@@ -2951,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E108">
         <v>42</v>
@@ -2999,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E110">
         <v>50</v>
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E111">
         <v>54</v>
@@ -3047,7 +3047,7 @@
         <v>5</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E112">
         <v>58</v>
@@ -3071,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>62</v>
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E114">
         <v>66</v>
@@ -3119,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E115">
         <v>70</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E116">
         <v>74</v>
@@ -3167,7 +3167,7 @@
         <v>5</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E117">
         <v>78</v>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E118">
         <v>82</v>
@@ -3215,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>90</v>
@@ -3287,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3311,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="E123">
         <v>6</v>
@@ -3335,7 +3335,7 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E124">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E125">
         <v>14</v>
@@ -3383,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <v>18</v>
@@ -3407,7 +3407,7 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E127">
         <v>22</v>
@@ -3431,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E128">
         <v>26</v>
@@ -3455,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E129">
         <v>30</v>
@@ -3479,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E130">
         <v>34</v>
@@ -3503,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E131">
         <v>38</v>
@@ -3527,7 +3527,7 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>42</v>
@@ -3575,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E134">
         <v>50</v>
@@ -3599,7 +3599,7 @@
         <v>6</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E135">
         <v>54</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E136">
         <v>58</v>
@@ -3647,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>62</v>
@@ -3671,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E138">
         <v>66</v>
@@ -3695,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E139">
         <v>70</v>
@@ -3719,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E140">
         <v>74</v>
@@ -3743,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E141">
         <v>78</v>
@@ -3767,7 +3767,7 @@
         <v>6</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E142">
         <v>82</v>
@@ -3791,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>86</v>
@@ -3815,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E144">
         <v>90</v>
@@ -3839,7 +3839,7 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>94</v>
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="D146">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="D147">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -3911,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E148">
         <v>10</v>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="D149">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E149">
         <v>14</v>
@@ -3959,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E150">
         <v>18</v>
@@ -3983,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="D151">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E151">
         <v>22</v>
@@ -4007,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>26</v>
@@ -4031,7 +4031,7 @@
         <v>7</v>
       </c>
       <c r="D153">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E153">
         <v>30</v>
@@ -4055,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="D154">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E154">
         <v>34</v>
@@ -4079,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E155">
         <v>38</v>
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E156">
         <v>42</v>
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="D158">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E158">
         <v>50</v>
@@ -4175,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E159">
         <v>54</v>
@@ -4199,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E160">
         <v>58</v>
@@ -4223,7 +4223,7 @@
         <v>7</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E161">
         <v>62</v>
@@ -4247,7 +4247,7 @@
         <v>7</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E162">
         <v>66</v>
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E163">
         <v>70</v>
@@ -4295,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>74</v>
@@ -4319,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>78</v>
@@ -4343,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E166">
         <v>82</v>
@@ -4367,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E167">
         <v>86</v>
@@ -4391,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="D168">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E168">
         <v>90</v>
@@ -4415,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>94</v>
@@ -4439,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>8</v>
       </c>
       <c r="D171">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="E171">
         <v>6</v>
@@ -4487,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E172">
         <v>10</v>
@@ -4511,7 +4511,7 @@
         <v>8</v>
       </c>
       <c r="D173">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -4535,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="D174">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E174">
         <v>18</v>
@@ -4559,7 +4559,7 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E175">
         <v>22</v>
@@ -4583,7 +4583,7 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E176">
         <v>26</v>
@@ -4607,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="D177">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E177">
         <v>30</v>
@@ -4631,7 +4631,7 @@
         <v>8</v>
       </c>
       <c r="D178">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E178">
         <v>34</v>
@@ -4655,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E179">
         <v>38</v>
@@ -4679,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E180">
         <v>42</v>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181">
         <v>46</v>
@@ -4727,7 +4727,7 @@
         <v>8</v>
       </c>
       <c r="D182">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E182">
         <v>50</v>
@@ -4751,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E183">
         <v>54</v>
@@ -4775,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E184">
         <v>58</v>
@@ -4799,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E185">
         <v>62</v>
@@ -4823,7 +4823,7 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E186">
         <v>66</v>
@@ -4847,7 +4847,7 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E187">
         <v>70</v>
@@ -4871,7 +4871,7 @@
         <v>8</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E188">
         <v>74</v>
@@ -4895,7 +4895,7 @@
         <v>8</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E189">
         <v>78</v>
@@ -4919,7 +4919,7 @@
         <v>8</v>
       </c>
       <c r="D190">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E190">
         <v>82</v>
@@ -4943,7 +4943,7 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E191">
         <v>86</v>
@@ -4967,7 +4967,7 @@
         <v>8</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E192">
         <v>90</v>
@@ -4991,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E193">
         <v>94</v>
@@ -5015,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -5039,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="D195">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="E195">
         <v>6</v>
@@ -5063,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E196">
         <v>10</v>
@@ -5087,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="D197">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E197">
         <v>14</v>
@@ -5111,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E198">
         <v>18</v>
@@ -5135,7 +5135,7 @@
         <v>9</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E199">
         <v>22</v>
@@ -5159,7 +5159,7 @@
         <v>9</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E200">
         <v>26</v>
@@ -5183,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E201">
         <v>30</v>
@@ -5207,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E202">
         <v>34</v>
@@ -5231,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E203">
         <v>38</v>
@@ -5255,7 +5255,7 @@
         <v>9</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E204">
         <v>42</v>
@@ -5303,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="D206">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E206">
         <v>50</v>
@@ -5327,7 +5327,7 @@
         <v>9</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E207">
         <v>54</v>
@@ -5351,7 +5351,7 @@
         <v>9</v>
       </c>
       <c r="D208">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E208">
         <v>58</v>
@@ -5375,7 +5375,7 @@
         <v>9</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E209">
         <v>62</v>
@@ -5399,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E210">
         <v>66</v>
@@ -5423,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E211">
         <v>70</v>
@@ -5447,7 +5447,7 @@
         <v>9</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E212">
         <v>74</v>
@@ -5471,7 +5471,7 @@
         <v>9</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E213">
         <v>78</v>
@@ -5495,7 +5495,7 @@
         <v>9</v>
       </c>
       <c r="D214">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E214">
         <v>82</v>
@@ -5519,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E215">
         <v>86</v>
@@ -5543,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E216">
         <v>90</v>
@@ -5567,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E217">
         <v>94</v>
@@ -5591,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="D218">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -5615,7 +5615,7 @@
         <v>10</v>
       </c>
       <c r="D219">
-        <v>95</v>
+        <v>692</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -5639,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E220">
         <v>10</v>
@@ -5663,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="D221">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="E221">
         <v>14</v>
@@ -5687,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="D222">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E222">
         <v>18</v>
@@ -5711,7 +5711,7 @@
         <v>10</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E223">
         <v>22</v>
@@ -5735,7 +5735,7 @@
         <v>10</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E224">
         <v>26</v>
@@ -5759,7 +5759,7 @@
         <v>10</v>
       </c>
       <c r="D225">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E225">
         <v>30</v>
@@ -5783,7 +5783,7 @@
         <v>10</v>
       </c>
       <c r="D226">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E226">
         <v>34</v>
@@ -5807,7 +5807,7 @@
         <v>10</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E227">
         <v>38</v>
@@ -5831,7 +5831,7 @@
         <v>10</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E228">
         <v>42</v>
@@ -5879,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="D230">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="E230">
         <v>50</v>
@@ -5903,7 +5903,7 @@
         <v>10</v>
       </c>
       <c r="D231">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E231">
         <v>54</v>
@@ -5927,7 +5927,7 @@
         <v>10</v>
       </c>
       <c r="D232">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E232">
         <v>58</v>
@@ -5951,7 +5951,7 @@
         <v>10</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E233">
         <v>62</v>
@@ -5975,7 +5975,7 @@
         <v>10</v>
       </c>
       <c r="D234">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E234">
         <v>66</v>
@@ -5999,7 +5999,7 @@
         <v>10</v>
       </c>
       <c r="D235">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E235">
         <v>70</v>
@@ -6023,7 +6023,7 @@
         <v>10</v>
       </c>
       <c r="D236">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E236">
         <v>74</v>
@@ -6047,7 +6047,7 @@
         <v>10</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E237">
         <v>78</v>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
       <c r="D238">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="E238">
         <v>82</v>
@@ -6095,7 +6095,7 @@
         <v>10</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E239">
         <v>86</v>
@@ -6119,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="D240">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E240">
         <v>90</v>
@@ -6143,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E241">
         <v>94</v>

--- a/Data/diabetes.xlsx
+++ b/Data/diabetes.xlsx
@@ -11,9 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
